--- a/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_LM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="895" documentId="11_B6EE3881D008C8B8764CF0F05AEC9A711CBBAEFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D06E95EB-2F95-445F-B8E2-AD2E3C68C6BE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTADOS_18" sheetId="1" r:id="rId1"/>
@@ -27,15 +33,32 @@
     <sheet name="RESULTADOS_17" sheetId="18" r:id="rId18"/>
     <sheet name="RESULTADOS_9" sheetId="19" r:id="rId19"/>
     <sheet name="resultados" sheetId="20" r:id="rId20"/>
-    <sheet name="gráficos" sheetId="21" r:id="rId21"/>
-    <sheet name="hidden" sheetId="22" state="hidden" r:id="rId22"/>
+    <sheet name="Resultados Geral" sheetId="23" r:id="rId21"/>
+    <sheet name="gráficos" sheetId="21" r:id="rId22"/>
+    <sheet name="hidden" sheetId="22" state="hidden" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId24"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="59">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -135,12 +158,90 @@
   <si>
     <t>Eixo Z</t>
   </si>
+  <si>
+    <t>Capacidade op. [ha/h]</t>
+  </si>
+  <si>
+    <t>Massa de combustível [kg]</t>
+  </si>
+  <si>
+    <t>N° voo</t>
+  </si>
+  <si>
+    <t>Abastecimento</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Capacidade op. corrigida [ha/h]</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Resultado 0</t>
+  </si>
+  <si>
+    <t>Resultado 1</t>
+  </si>
+  <si>
+    <t>Resultado 2</t>
+  </si>
+  <si>
+    <t>Resultado 3</t>
+  </si>
+  <si>
+    <t>Resultado 4</t>
+  </si>
+  <si>
+    <t>Resultado 5</t>
+  </si>
+  <si>
+    <t>Resultado 6</t>
+  </si>
+  <si>
+    <t>Resultado 7</t>
+  </si>
+  <si>
+    <t>Resultado 8</t>
+  </si>
+  <si>
+    <t>Resultado 9</t>
+  </si>
+  <si>
+    <t>Resultado 10</t>
+  </si>
+  <si>
+    <t>Resultado 11</t>
+  </si>
+  <si>
+    <t>Resultado 12</t>
+  </si>
+  <si>
+    <t>Resultado 13</t>
+  </si>
+  <si>
+    <t>Resultado 14</t>
+  </si>
+  <si>
+    <t>Resultado 15</t>
+  </si>
+  <si>
+    <t>Resultado 16</t>
+  </si>
+  <si>
+    <t>Resultado 17</t>
+  </si>
+  <si>
+    <t>Resultado 18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,12 +304,318 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Capacidade Operacional vs Volume de Calda</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Resultados Geral'!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Resultados Geral'!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.1990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5550999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1427999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4386000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6930999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7855000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8256000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8410000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E92-49B8-914E-E5BCA09E6702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E92-49B8-914E-E5BCA09E6702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="768853104"/>
+        <c:axId val="768857424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="768853104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Volume de Calda [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="768857424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="768857424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Capacidade Operacional [ha/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="768853104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -226,12 +633,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -266,6 +675,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -276,6 +691,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -286,6 +707,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -296,6 +723,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -306,6 +739,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -316,6 +755,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -326,6 +771,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -336,6 +787,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -346,6 +803,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -356,6 +819,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -366,6 +835,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -376,6 +851,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -386,6 +867,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -396,6 +883,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -406,6 +899,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -416,6 +915,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -426,6 +931,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -436,6 +947,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -446,6 +963,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -456,6 +979,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -466,6 +995,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -476,6 +1011,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -486,6 +1027,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -496,6 +1043,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -506,6 +1059,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -516,6 +1075,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -526,6 +1091,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -536,6 +1107,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -546,6 +1123,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -556,6 +1139,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -566,6 +1155,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -576,6 +1171,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -586,6 +1187,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -596,6 +1203,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -606,6 +1219,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -616,6 +1235,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -626,6 +1251,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
@@ -636,6 +1267,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
@@ -646,6 +1283,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
@@ -656,6 +1299,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
@@ -666,6 +1315,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
@@ -676,6 +1331,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
@@ -686,6 +1347,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
@@ -696,6 +1363,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
@@ -706,6 +1379,12 @@
                 </a:solidFill>
               </c:spPr>
             </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-0422-44C5-B2FE-BD328D47A5BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -714,139 +1393,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,144 +1537,158 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-0422-44C5-B2FE-BD328D47A5BC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:scatterChart>
@@ -1004,6 +1697,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1014,7 +1708,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr/>
             <a:lstStyle/>
@@ -1022,11 +1716,13 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -1037,6 +1733,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1048,7 +1745,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
             <a:lstStyle/>
@@ -1056,11 +1753,13 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -1069,9 +1768,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1085,20 +1786,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12786CD-A467-918A-7DBB-5D8276EF03F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1116,10 +1823,146 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Resumo"/>
+      <sheetName val="Resultado 0"/>
+      <sheetName val="Resultado 1"/>
+      <sheetName val="Resultado 2"/>
+      <sheetName val="Resultado 3"/>
+      <sheetName val="Resultado 4"/>
+      <sheetName val="Resultado 5"/>
+      <sheetName val="Resultado 6"/>
+      <sheetName val="Resultado 7"/>
+      <sheetName val="Resultado 8"/>
+      <sheetName val="Resultado 9"/>
+      <sheetName val="Resultado 10"/>
+      <sheetName val="Resultado 11"/>
+      <sheetName val="Resultado 12"/>
+      <sheetName val="Resultado 13"/>
+      <sheetName val="Resultado 14"/>
+      <sheetName val="Resultado 15"/>
+      <sheetName val="Resultado 16"/>
+      <sheetName val="Resultado 17"/>
+      <sheetName val="Resultado 18"/>
+      <sheetName val="Resultado 19"/>
+      <sheetName val="Resultado 20"/>
+      <sheetName val="Resultado 21"/>
+      <sheetName val="Resultado 22"/>
+      <sheetName val="Resultado 23"/>
+      <sheetName val="Resultado 24"/>
+      <sheetName val="Resultado 25"/>
+      <sheetName val="Resultado 26"/>
+      <sheetName val="Resultado 27"/>
+      <sheetName val="Resultado 28"/>
+      <sheetName val="Resultado 29"/>
+      <sheetName val="Resultado 30"/>
+      <sheetName val="Resultado 31"/>
+      <sheetName val="Resultado 32"/>
+      <sheetName val="Resultado 33"/>
+      <sheetName val="Resultado 34"/>
+      <sheetName val="Resultado 36"/>
+      <sheetName val="Resultado 37"/>
+      <sheetName val="Resultado 38"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="CriarResultadosGeral"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1157,7 +2000,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1191,6 +2034,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1225,9 +2069,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1400,14 +2245,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +2333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1498,7 +2344,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>1.4561</v>
+        <v>1.4560999999999999</v>
       </c>
       <c r="E2">
         <v>68.67</v>
@@ -1537,13 +2383,13 @@
         <v>630.75</v>
       </c>
       <c r="Q2">
-        <v>10035.72</v>
+        <v>10035.719999999999</v>
       </c>
       <c r="R2">
         <v>904.96</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>408155.61</v>
@@ -1567,7 +2413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1578,10 +2424,10 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.7546</v>
+        <v>2.7545999999999999</v>
       </c>
       <c r="E3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F3">
         <v>29.35</v>
@@ -1608,7 +2454,7 @@
         <v>78</v>
       </c>
       <c r="N3">
-        <v>39.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="O3">
         <v>24447.22</v>
@@ -1623,16 +2469,16 @@
         <v>265.14</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
-        <v>90003.49000000001</v>
+        <v>90003.49</v>
       </c>
       <c r="U3">
         <v>0.32</v>
       </c>
       <c r="V3">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W3">
         <v>0.38</v>
@@ -1647,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1658,10 +2504,10 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.841</v>
+        <v>2.8410000000000002</v>
       </c>
       <c r="E4">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F4">
         <v>28.72</v>
@@ -1694,16 +2540,16 @@
         <v>24639</v>
       </c>
       <c r="P4">
-        <v>295.78</v>
+        <v>295.77999999999997</v>
       </c>
       <c r="Q4">
-        <v>10032.22</v>
+        <v>10032.219999999999</v>
       </c>
       <c r="R4">
         <v>240.67</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
         <v>77831.45</v>
@@ -1718,7 +2564,7 @@
         <v>0.43</v>
       </c>
       <c r="X4">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1733,14 +2579,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +2667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1831,7 +2678,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>1.8878</v>
+        <v>1.8877999999999999</v>
       </c>
       <c r="E2">
         <v>52.97</v>
@@ -1876,7 +2723,7 @@
         <v>636.99</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>274880.14</v>
@@ -1900,7 +2747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1911,7 +2758,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.745</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="E3">
         <v>36.43</v>
@@ -1944,7 +2791,7 @@
         <v>28.26</v>
       </c>
       <c r="O3">
-        <v>20034.4</v>
+        <v>20034.400000000001</v>
       </c>
       <c r="P3">
         <v>272.63</v>
@@ -1956,7 +2803,7 @@
         <v>282.2</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>98464.23</v>
@@ -1980,7 +2827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1994,7 +2841,7 @@
         <v>2.7519</v>
       </c>
       <c r="E4">
-        <v>36.34</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="F4">
         <v>29.92</v>
@@ -2036,7 +2883,7 @@
         <v>280.17</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
         <v>97455.11</v>
@@ -2066,14 +2913,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +3001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2164,13 +3012,13 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>2.2549</v>
+        <v>2.2549000000000001</v>
       </c>
       <c r="E2">
         <v>44.35</v>
       </c>
       <c r="F2">
-        <v>37.48</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="G2">
         <v>7.78</v>
@@ -2197,7 +3045,7 @@
         <v>9.74</v>
       </c>
       <c r="O2">
-        <v>10204.21</v>
+        <v>10204.209999999999</v>
       </c>
       <c r="P2">
         <v>230.27</v>
@@ -2209,7 +3057,7 @@
         <v>528.86</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>220992.19</v>
@@ -2233,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2244,13 +3092,13 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.2592</v>
+        <v>2.2591999999999999</v>
       </c>
       <c r="E3">
         <v>44.26</v>
       </c>
       <c r="F3">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="G3">
         <v>7.79</v>
@@ -2262,7 +3110,7 @@
         <v>288</v>
       </c>
       <c r="J3">
-        <v>82.04000000000001</v>
+        <v>82.04</v>
       </c>
       <c r="K3">
         <v>35.1</v>
@@ -2277,19 +3125,19 @@
         <v>9.94</v>
       </c>
       <c r="O3">
-        <v>10352.53</v>
+        <v>10352.530000000001</v>
       </c>
       <c r="P3">
         <v>232.68</v>
       </c>
       <c r="Q3">
-        <v>10035.28</v>
+        <v>10035.280000000001</v>
       </c>
       <c r="R3">
         <v>526.48</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>219805.61</v>
@@ -2319,14 +3167,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +3255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2426,7 +3275,7 @@
         <v>33.64</v>
       </c>
       <c r="G2">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H2">
         <v>0.16</v>
@@ -2456,13 +3305,13 @@
         <v>243.95</v>
       </c>
       <c r="Q2">
-        <v>10032.96</v>
+        <v>10032.959999999999</v>
       </c>
       <c r="R2">
         <v>403.43</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>158691.88</v>
@@ -2486,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2503,7 +3352,7 @@
         <v>39.9</v>
       </c>
       <c r="F3">
-        <v>33.37</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="G3">
         <v>9.91</v>
@@ -2536,13 +3385,13 @@
         <v>243.43</v>
       </c>
       <c r="Q3">
-        <v>10033.2</v>
+        <v>10033.200000000001</v>
       </c>
       <c r="R3">
         <v>393.74</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>153862.93</v>
@@ -2557,7 +3406,7 @@
         <v>0.72</v>
       </c>
       <c r="X3">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -2572,14 +3421,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Planilha13"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +3509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2682,7 +3532,7 @@
         <v>6.38</v>
       </c>
       <c r="H2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I2">
         <v>402</v>
@@ -2715,7 +3565,7 @@
         <v>701.12</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>306554.19</v>
@@ -2724,7 +3574,7 @@
         <v>0.12</v>
       </c>
       <c r="V2">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W2">
         <v>1.31</v>
@@ -2739,7 +3589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2762,7 +3612,7 @@
         <v>6.38</v>
       </c>
       <c r="H3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I3">
         <v>402</v>
@@ -2792,10 +3642,10 @@
         <v>10036.61</v>
       </c>
       <c r="R3">
-        <v>701.0700000000001</v>
+        <v>701.07</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>306532.5</v>
@@ -2804,7 +3654,7 @@
         <v>0.12</v>
       </c>
       <c r="V3">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W3">
         <v>1.31</v>
@@ -2825,14 +3675,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Planilha14"/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +3763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2968,7 +3819,7 @@
         <v>695.97</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>304209.93</v>
@@ -2977,13 +3828,13 @@
         <v>0.12</v>
       </c>
       <c r="V2">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="W2">
         <v>0.72</v>
       </c>
       <c r="X2">
-        <v>17.94</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -2992,7 +3843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3045,10 +3896,10 @@
         <v>10033.35</v>
       </c>
       <c r="R3">
-        <v>270.54</v>
+        <v>270.54000000000002</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>92670.41</v>
@@ -3072,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3083,7 +3934,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.7855</v>
+        <v>2.7854999999999999</v>
       </c>
       <c r="E4">
         <v>35.9</v>
@@ -3119,25 +3970,25 @@
         <v>21297.94</v>
       </c>
       <c r="P4">
-        <v>278.46</v>
+        <v>278.45999999999998</v>
       </c>
       <c r="Q4">
         <v>10033.31</v>
       </c>
       <c r="R4">
-        <v>266.1</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
-        <v>90459.21000000001</v>
+        <v>90459.21</v>
       </c>
       <c r="U4">
         <v>0.32</v>
       </c>
       <c r="V4">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W4">
         <v>0.48</v>
@@ -3158,14 +4009,15 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Planilha15"/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3245,7 +4097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3301,7 +4153,7 @@
         <v>855.35</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>383172.35</v>
@@ -3331,14 +4183,15 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Planilha16"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +4271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3429,7 +4282,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>2.2657</v>
+        <v>2.2656999999999998</v>
       </c>
       <c r="E2">
         <v>44.14</v>
@@ -3462,19 +4315,19 @@
         <v>20.75</v>
       </c>
       <c r="O2">
-        <v>16663.42</v>
+        <v>16663.419999999998</v>
       </c>
       <c r="P2">
         <v>321.18</v>
       </c>
       <c r="Q2">
-        <v>10034.45</v>
+        <v>10034.450000000001</v>
       </c>
       <c r="R2">
         <v>478.25</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>195953.85</v>
@@ -3498,7 +4351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3512,7 +4365,7 @@
         <v>2.6555</v>
       </c>
       <c r="E3">
-        <v>37.66</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="F3">
         <v>31.23</v>
@@ -3527,7 +4380,7 @@
         <v>156</v>
       </c>
       <c r="J3">
-        <v>134.55</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="K3">
         <v>46.47</v>
@@ -3545,16 +4398,16 @@
         <v>16828.84</v>
       </c>
       <c r="P3">
-        <v>256.72</v>
+        <v>256.72000000000003</v>
       </c>
       <c r="Q3">
         <v>10033.41</v>
       </c>
       <c r="R3">
-        <v>323.21</v>
+        <v>323.20999999999998</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>118829.1</v>
@@ -3584,14 +4437,15 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Planilha17"/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +4525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3682,13 +4536,13 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>2.0089</v>
+        <v>2.0089000000000001</v>
       </c>
       <c r="E2">
         <v>49.78</v>
       </c>
       <c r="F2">
-        <v>38.55</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="G2">
         <v>7.89</v>
@@ -3715,19 +4569,19 @@
         <v>25.34</v>
       </c>
       <c r="O2">
-        <v>18787.76</v>
+        <v>18787.759999999998</v>
       </c>
       <c r="P2">
         <v>400.02</v>
       </c>
       <c r="Q2">
-        <v>10034.63</v>
+        <v>10034.629999999999</v>
       </c>
       <c r="R2">
         <v>580.47</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>246773.99</v>
@@ -3751,7 +4605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3762,7 +4616,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.7208</v>
+        <v>2.7208000000000001</v>
       </c>
       <c r="E3">
         <v>36.75</v>
@@ -3780,7 +4634,7 @@
         <v>136</v>
       </c>
       <c r="J3">
-        <v>151.83</v>
+        <v>151.83000000000001</v>
       </c>
       <c r="K3">
         <v>49.1</v>
@@ -3807,13 +4661,13 @@
         <v>293.33</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>103992.37</v>
       </c>
       <c r="U3">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V3">
         <v>0.78</v>
@@ -3831,7 +4685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3845,7 +4699,7 @@
         <v>2.7279</v>
       </c>
       <c r="E4">
-        <v>36.66</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="F4">
         <v>30.26</v>
@@ -3860,7 +4714,7 @@
         <v>135</v>
       </c>
       <c r="J4">
-        <v>153.23</v>
+        <v>153.22999999999999</v>
       </c>
       <c r="K4">
         <v>49.1</v>
@@ -3875,7 +4729,7 @@
         <v>26.13</v>
       </c>
       <c r="O4">
-        <v>19131.85</v>
+        <v>19131.849999999999</v>
       </c>
       <c r="P4">
         <v>268.74</v>
@@ -3887,13 +4741,13 @@
         <v>291.13</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
         <v>102893.37</v>
       </c>
       <c r="U4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V4">
         <v>0.78</v>
@@ -3917,14 +4771,15 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="Planilha18"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4004,7 +4859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4015,7 +4870,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>1.5598</v>
+        <v>1.5598000000000001</v>
       </c>
       <c r="E2">
         <v>64.11</v>
@@ -4051,7 +4906,7 @@
         <v>23136.14</v>
       </c>
       <c r="P2">
-        <v>577.6799999999999</v>
+        <v>577.67999999999995</v>
       </c>
       <c r="Q2">
         <v>10036.66</v>
@@ -4060,7 +4915,7 @@
         <v>827.66</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>369706.62</v>
@@ -4084,7 +4939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4095,10 +4950,10 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.7877</v>
+        <v>2.7877000000000001</v>
       </c>
       <c r="E3">
-        <v>35.87</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="F3">
         <v>29.23</v>
@@ -4125,22 +4980,22 @@
         <v>35</v>
       </c>
       <c r="N3">
-        <v>36.77</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="O3">
-        <v>23322.88</v>
+        <v>23322.880000000001</v>
       </c>
       <c r="P3">
         <v>294.26</v>
       </c>
       <c r="Q3">
-        <v>10032.22</v>
+        <v>10032.219999999999</v>
       </c>
       <c r="R3">
         <v>259.3</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>87096.75</v>
@@ -4149,7 +5004,7 @@
         <v>0.33</v>
       </c>
       <c r="V3">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W3">
         <v>0.42</v>
@@ -4164,7 +5019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4175,7 +5030,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.8179</v>
+        <v>2.8178999999999998</v>
       </c>
       <c r="E4">
         <v>35.49</v>
@@ -4187,7 +5042,7 @@
         <v>16.11</v>
       </c>
       <c r="H4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I4">
         <v>108</v>
@@ -4220,7 +5075,7 @@
         <v>249.96</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
         <v>82445.77</v>
@@ -4244,7 +5099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4255,7 +5110,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>2.8256</v>
+        <v>2.8256000000000001</v>
       </c>
       <c r="E5">
         <v>35.39</v>
@@ -4300,7 +5155,7 @@
         <v>247.93</v>
       </c>
       <c r="S5">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T5">
         <v>81434.37</v>
@@ -4330,14 +5185,15 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr codeName="Planilha19"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4417,7 +5273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4428,7 +5284,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>2.4853</v>
+        <v>2.4853000000000001</v>
       </c>
       <c r="E2">
         <v>40.24</v>
@@ -4437,7 +5293,7 @@
         <v>33.42</v>
       </c>
       <c r="G2">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="H2">
         <v>0.15</v>
@@ -4458,13 +5314,13 @@
         <v>69</v>
       </c>
       <c r="N2">
-        <v>16.65</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="O2">
         <v>14546.17</v>
       </c>
       <c r="P2">
-        <v>257.04</v>
+        <v>257.04000000000002</v>
       </c>
       <c r="Q2">
         <v>10032.94</v>
@@ -4473,7 +5329,7 @@
         <v>399.21</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>156620.31</v>
@@ -4497,7 +5353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4511,7 +5367,7 @@
         <v>2.5627</v>
       </c>
       <c r="E3">
-        <v>39.02</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="F3">
         <v>32.54</v>
@@ -4538,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="O3">
         <v>14705.49</v>
@@ -4553,7 +5409,7 @@
         <v>366.36</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>140266</v>
@@ -4568,7 +5424,7 @@
         <v>0.67</v>
       </c>
       <c r="X3">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -4583,14 +5439,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4670,7 +5527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4702,7 +5559,7 @@
         <v>89.87</v>
       </c>
       <c r="K2">
-        <v>37.55</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -4720,13 +5577,13 @@
         <v>233.47</v>
       </c>
       <c r="Q2">
-        <v>10032.8</v>
+        <v>10032.799999999999</v>
       </c>
       <c r="R2">
         <v>473.14</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>193308.84</v>
@@ -4750,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4761,7 +5618,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.3576</v>
+        <v>2.3576000000000001</v>
       </c>
       <c r="E3">
         <v>42.42</v>
@@ -4779,10 +5636,10 @@
         <v>252</v>
       </c>
       <c r="J3">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="K3">
-        <v>37.55</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -4800,13 +5657,13 @@
         <v>235.64</v>
       </c>
       <c r="Q3">
-        <v>10032.8</v>
+        <v>10032.799999999999</v>
       </c>
       <c r="R3">
         <v>470.71</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>192101.89</v>
@@ -4836,14 +5693,15 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr codeName="Planilha20"/>
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +5781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4934,7 +5792,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>1.4561</v>
+        <v>1.4560999999999999</v>
       </c>
       <c r="E2">
         <v>68.67</v>
@@ -4973,13 +5831,13 @@
         <v>630.75</v>
       </c>
       <c r="Q2">
-        <v>10035.72</v>
+        <v>10035.719999999999</v>
       </c>
       <c r="R2">
         <v>904.96</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>408155.61</v>
@@ -5003,7 +5861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5014,10 +5872,10 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.7546</v>
+        <v>2.7545999999999999</v>
       </c>
       <c r="E3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F3">
         <v>29.35</v>
@@ -5044,7 +5902,7 @@
         <v>78</v>
       </c>
       <c r="N3">
-        <v>39.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="O3">
         <v>24447.22</v>
@@ -5059,16 +5917,16 @@
         <v>265.14</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
-        <v>90003.49000000001</v>
+        <v>90003.49</v>
       </c>
       <c r="U3">
         <v>0.32</v>
       </c>
       <c r="V3">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W3">
         <v>0.38</v>
@@ -5083,7 +5941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5094,10 +5952,10 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.841</v>
+        <v>2.8410000000000002</v>
       </c>
       <c r="E4">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F4">
         <v>28.72</v>
@@ -5130,16 +5988,16 @@
         <v>24639</v>
       </c>
       <c r="P4">
-        <v>295.78</v>
+        <v>295.77999999999997</v>
       </c>
       <c r="Q4">
-        <v>10032.22</v>
+        <v>10032.219999999999</v>
       </c>
       <c r="R4">
         <v>240.67</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
         <v>77831.45</v>
@@ -5154,7 +6012,7 @@
         <v>0.43</v>
       </c>
       <c r="X4">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -5163,7 +6021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5195,7 +6053,7 @@
         <v>89.87</v>
       </c>
       <c r="K5">
-        <v>37.55</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5213,13 +6071,13 @@
         <v>233.47</v>
       </c>
       <c r="Q5">
-        <v>10032.8</v>
+        <v>10032.799999999999</v>
       </c>
       <c r="R5">
         <v>473.14</v>
       </c>
       <c r="S5">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T5">
         <v>193308.84</v>
@@ -5243,7 +6101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5254,7 +6112,7 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>2.3576</v>
+        <v>2.3576000000000001</v>
       </c>
       <c r="E6">
         <v>42.42</v>
@@ -5272,10 +6130,10 @@
         <v>252</v>
       </c>
       <c r="J6">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="K6">
-        <v>37.55</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -5293,13 +6151,13 @@
         <v>235.64</v>
       </c>
       <c r="Q6">
-        <v>10032.8</v>
+        <v>10032.799999999999</v>
       </c>
       <c r="R6">
         <v>470.71</v>
       </c>
       <c r="S6">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T6">
         <v>192101.89</v>
@@ -5323,7 +6181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5355,7 +6213,7 @@
         <v>71.52</v>
       </c>
       <c r="K7">
-        <v>32.27</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5379,19 +6237,19 @@
         <v>600.63</v>
       </c>
       <c r="S7">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T7">
         <v>256642.46</v>
       </c>
       <c r="U7">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V7">
         <v>0.6</v>
       </c>
       <c r="W7">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="X7">
         <v>15.68</v>
@@ -5403,7 +6261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5414,7 +6272,7 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <v>2.1428</v>
+        <v>2.1427999999999998</v>
       </c>
       <c r="E8">
         <v>46.67</v>
@@ -5435,7 +6293,7 @@
         <v>72.7</v>
       </c>
       <c r="K8">
-        <v>32.27</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -5459,19 +6317,19 @@
         <v>598.6</v>
       </c>
       <c r="S8">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T8">
         <v>255630.23</v>
       </c>
       <c r="U8">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V8">
         <v>0.6</v>
       </c>
       <c r="W8">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="X8">
         <v>15.62</v>
@@ -5483,7 +6341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5494,7 +6352,7 @@
         <v>26</v>
       </c>
       <c r="D9">
-        <v>1.5551</v>
+        <v>1.5550999999999999</v>
       </c>
       <c r="E9">
         <v>64.3</v>
@@ -5539,7 +6397,7 @@
         <v>1110.77</v>
       </c>
       <c r="S9">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T9">
         <v>510051.94</v>
@@ -5563,7 +6421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5574,13 +6432,13 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <v>2.1322</v>
+        <v>2.1322000000000001</v>
       </c>
       <c r="E10">
         <v>46.9</v>
       </c>
       <c r="F10">
-        <v>37.05</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="G10">
         <v>8.42</v>
@@ -5619,7 +6477,7 @@
         <v>529.34</v>
       </c>
       <c r="S10">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T10">
         <v>221356.1</v>
@@ -5631,7 +6489,7 @@
         <v>0.64</v>
       </c>
       <c r="W10">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X10">
         <v>13.05</v>
@@ -5643,7 +6501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5654,10 +6512,10 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>2.6931</v>
+        <v>2.6930999999999998</v>
       </c>
       <c r="E11">
-        <v>37.13</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="F11">
         <v>30.71</v>
@@ -5672,7 +6530,7 @@
         <v>145</v>
       </c>
       <c r="J11">
-        <v>143.17</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="K11">
         <v>47.83</v>
@@ -5690,28 +6548,28 @@
         <v>17891.86</v>
       </c>
       <c r="P11">
-        <v>261.53</v>
+        <v>261.52999999999997</v>
       </c>
       <c r="Q11">
-        <v>10032.62</v>
+        <v>10032.620000000001</v>
       </c>
       <c r="R11">
-        <v>306.22</v>
+        <v>306.22000000000003</v>
       </c>
       <c r="S11">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T11">
         <v>110390.64</v>
       </c>
       <c r="U11">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V11">
         <v>0.77</v>
       </c>
       <c r="W11">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X11">
         <v>6.73</v>
@@ -5723,7 +6581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5734,10 +6592,10 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <v>2.6931</v>
+        <v>2.6930999999999998</v>
       </c>
       <c r="E12">
-        <v>37.13</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="F12">
         <v>30.72</v>
@@ -5767,7 +6625,7 @@
         <v>23.71</v>
       </c>
       <c r="O12">
-        <v>18060.85</v>
+        <v>18060.849999999999</v>
       </c>
       <c r="P12">
         <v>263.94</v>
@@ -5776,22 +6634,22 @@
         <v>10032.61</v>
       </c>
       <c r="R12">
-        <v>306.21</v>
+        <v>306.20999999999998</v>
       </c>
       <c r="S12">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T12">
         <v>110385.97</v>
       </c>
       <c r="U12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V12">
         <v>0.77</v>
       </c>
       <c r="W12">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X12">
         <v>6.73</v>
@@ -5803,7 +6661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5814,7 +6672,7 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>1.6644</v>
+        <v>1.6644000000000001</v>
       </c>
       <c r="E13">
         <v>60.08</v>
@@ -5850,7 +6708,7 @@
         <v>22031.19</v>
       </c>
       <c r="P13">
-        <v>529.55</v>
+        <v>529.54999999999995</v>
       </c>
       <c r="Q13">
         <v>10035.31</v>
@@ -5859,7 +6717,7 @@
         <v>759.59</v>
       </c>
       <c r="S13">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T13">
         <v>335850.83</v>
@@ -5883,7 +6741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5897,7 +6755,7 @@
         <v>2.79</v>
       </c>
       <c r="E14">
-        <v>35.84</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="F14">
         <v>29.33</v>
@@ -5924,7 +6782,7 @@
         <v>7</v>
       </c>
       <c r="N14">
-        <v>33.77</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="O14">
         <v>22213.89</v>
@@ -5939,7 +6797,7 @@
         <v>261.39</v>
       </c>
       <c r="S14">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T14">
         <v>88123.73</v>
@@ -5948,7 +6806,7 @@
         <v>0.32</v>
       </c>
       <c r="V14">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W14">
         <v>0.46</v>
@@ -5963,7 +6821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5974,7 +6832,7 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>2.7975</v>
+        <v>2.7974999999999999</v>
       </c>
       <c r="E15">
         <v>35.75</v>
@@ -6013,22 +6871,22 @@
         <v>285.57</v>
       </c>
       <c r="Q15">
-        <v>10032.13</v>
+        <v>10032.129999999999</v>
       </c>
       <c r="R15">
         <v>259.12</v>
       </c>
       <c r="S15">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T15">
-        <v>86992.67999999999</v>
+        <v>86992.68</v>
       </c>
       <c r="U15">
         <v>0.33</v>
       </c>
       <c r="V15">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W15">
         <v>0.46</v>
@@ -6043,7 +6901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6054,7 +6912,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>2.8049</v>
+        <v>2.8048999999999999</v>
       </c>
       <c r="E16">
         <v>35.65</v>
@@ -6090,25 +6948,25 @@
         <v>22581.25</v>
       </c>
       <c r="P16">
-        <v>287.04</v>
+        <v>287.04000000000002</v>
       </c>
       <c r="Q16">
-        <v>10032.13</v>
+        <v>10032.129999999999</v>
       </c>
       <c r="R16">
-        <v>257.1</v>
+        <v>257.10000000000002</v>
       </c>
       <c r="S16">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T16">
-        <v>85989.64999999999</v>
+        <v>85989.65</v>
       </c>
       <c r="U16">
         <v>0.33</v>
       </c>
       <c r="V16">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W16">
         <v>0.46</v>
@@ -6123,7 +6981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -6134,10 +6992,10 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>1.199</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="E17">
-        <v>83.40000000000001</v>
+        <v>83.4</v>
       </c>
       <c r="F17">
         <v>70.66</v>
@@ -6179,7 +7037,7 @@
         <v>1619.06</v>
       </c>
       <c r="S17">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T17">
         <v>762539.01</v>
@@ -6203,7 +7061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -6214,13 +7072,13 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>2.4284</v>
+        <v>2.4283999999999999</v>
       </c>
       <c r="E18">
         <v>41.18</v>
       </c>
       <c r="F18">
-        <v>34.55</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="G18">
         <v>9.17</v>
@@ -6232,7 +7090,7 @@
         <v>226</v>
       </c>
       <c r="J18">
-        <v>98.70999999999999</v>
+        <v>98.71</v>
       </c>
       <c r="K18">
         <v>39.72</v>
@@ -6259,7 +7117,7 @@
         <v>432.43</v>
       </c>
       <c r="S18">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T18">
         <v>173091.82</v>
@@ -6268,7 +7126,7 @@
         <v>0.2</v>
       </c>
       <c r="V18">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="W18">
         <v>0.79</v>
@@ -6283,7 +7141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6294,16 +7152,16 @@
         <v>26</v>
       </c>
       <c r="D19">
-        <v>2.4386</v>
+        <v>2.4386000000000001</v>
       </c>
       <c r="E19">
         <v>41.01</v>
       </c>
       <c r="F19">
-        <v>34.41</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="G19">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="H19">
         <v>0.35</v>
@@ -6339,7 +7197,7 @@
         <v>427.97</v>
       </c>
       <c r="S19">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T19">
         <v>170868.23</v>
@@ -6348,7 +7206,7 @@
         <v>0.2</v>
       </c>
       <c r="V19">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="W19">
         <v>0.79</v>
@@ -6363,7 +7221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -6374,7 +7232,7 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <v>2.397</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="E20">
         <v>41.72</v>
@@ -6383,10 +7241,10 @@
         <v>34.22</v>
       </c>
       <c r="G20">
-        <v>9.779999999999999</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="H20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I20">
         <v>210</v>
@@ -6410,7 +7268,7 @@
         <v>15605.44</v>
       </c>
       <c r="P20">
-        <v>284.78</v>
+        <v>284.77999999999997</v>
       </c>
       <c r="Q20">
         <v>10033.49</v>
@@ -6419,7 +7277,7 @@
         <v>430.21</v>
       </c>
       <c r="S20">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T20">
         <v>172061.49</v>
@@ -6428,7 +7286,7 @@
         <v>0.2</v>
       </c>
       <c r="V20">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="W20">
         <v>0.54</v>
@@ -6443,7 +7301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6454,7 +7312,7 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>2.6125</v>
+        <v>2.6124999999999998</v>
       </c>
       <c r="E21">
         <v>38.28</v>
@@ -6466,7 +7324,7 @@
         <v>11.3</v>
       </c>
       <c r="H21">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I21">
         <v>169</v>
@@ -6499,7 +7357,7 @@
         <v>342.84</v>
       </c>
       <c r="S21">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T21">
         <v>128580.88</v>
@@ -6523,7 +7381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -6534,7 +7392,7 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>2.6125</v>
+        <v>2.6124999999999998</v>
       </c>
       <c r="E22">
         <v>38.28</v>
@@ -6579,7 +7437,7 @@
         <v>342.81</v>
       </c>
       <c r="S22">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T22">
         <v>128566.67</v>
@@ -6603,7 +7461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -6614,7 +7472,7 @@
         <v>26</v>
       </c>
       <c r="D23">
-        <v>1.8878</v>
+        <v>1.8877999999999999</v>
       </c>
       <c r="E23">
         <v>52.97</v>
@@ -6659,7 +7517,7 @@
         <v>636.99</v>
       </c>
       <c r="S23">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T23">
         <v>274880.14</v>
@@ -6683,7 +7541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6694,7 +7552,7 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>2.745</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="E24">
         <v>36.43</v>
@@ -6727,7 +7585,7 @@
         <v>28.26</v>
       </c>
       <c r="O24">
-        <v>20034.4</v>
+        <v>20034.400000000001</v>
       </c>
       <c r="P24">
         <v>272.63</v>
@@ -6739,7 +7597,7 @@
         <v>282.2</v>
       </c>
       <c r="S24">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T24">
         <v>98464.23</v>
@@ -6763,7 +7621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6777,7 +7635,7 @@
         <v>2.7519</v>
       </c>
       <c r="E25">
-        <v>36.34</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="F25">
         <v>29.92</v>
@@ -6819,7 +7677,7 @@
         <v>280.17</v>
       </c>
       <c r="S25">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T25">
         <v>97455.11</v>
@@ -6843,7 +7701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -6854,13 +7712,13 @@
         <v>26</v>
       </c>
       <c r="D26">
-        <v>2.2549</v>
+        <v>2.2549000000000001</v>
       </c>
       <c r="E26">
         <v>44.35</v>
       </c>
       <c r="F26">
-        <v>37.48</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="G26">
         <v>7.78</v>
@@ -6887,7 +7745,7 @@
         <v>9.74</v>
       </c>
       <c r="O26">
-        <v>10204.21</v>
+        <v>10204.209999999999</v>
       </c>
       <c r="P26">
         <v>230.27</v>
@@ -6899,7 +7757,7 @@
         <v>528.86</v>
       </c>
       <c r="S26">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T26">
         <v>220992.19</v>
@@ -6923,7 +7781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6934,13 +7792,13 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>2.2592</v>
+        <v>2.2591999999999999</v>
       </c>
       <c r="E27">
         <v>44.26</v>
       </c>
       <c r="F27">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="G27">
         <v>7.79</v>
@@ -6952,7 +7810,7 @@
         <v>288</v>
       </c>
       <c r="J27">
-        <v>82.04000000000001</v>
+        <v>82.04</v>
       </c>
       <c r="K27">
         <v>35.1</v>
@@ -6967,19 +7825,19 @@
         <v>9.94</v>
       </c>
       <c r="O27">
-        <v>10352.53</v>
+        <v>10352.530000000001</v>
       </c>
       <c r="P27">
         <v>232.68</v>
       </c>
       <c r="Q27">
-        <v>10035.28</v>
+        <v>10035.280000000001</v>
       </c>
       <c r="R27">
         <v>526.48</v>
       </c>
       <c r="S27">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T27">
         <v>219805.61</v>
@@ -7003,7 +7861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -7023,7 +7881,7 @@
         <v>33.64</v>
       </c>
       <c r="G28">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H28">
         <v>0.16</v>
@@ -7053,13 +7911,13 @@
         <v>243.95</v>
       </c>
       <c r="Q28">
-        <v>10032.96</v>
+        <v>10032.959999999999</v>
       </c>
       <c r="R28">
         <v>403.43</v>
       </c>
       <c r="S28">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T28">
         <v>158691.88</v>
@@ -7083,7 +7941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7100,7 +7958,7 @@
         <v>39.9</v>
       </c>
       <c r="F29">
-        <v>33.37</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="G29">
         <v>9.91</v>
@@ -7133,13 +7991,13 @@
         <v>243.43</v>
       </c>
       <c r="Q29">
-        <v>10033.2</v>
+        <v>10033.200000000001</v>
       </c>
       <c r="R29">
         <v>393.74</v>
       </c>
       <c r="S29">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T29">
         <v>153862.93</v>
@@ -7154,7 +8012,7 @@
         <v>0.72</v>
       </c>
       <c r="X29">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -7163,7 +8021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -7186,7 +8044,7 @@
         <v>6.38</v>
       </c>
       <c r="H30">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I30">
         <v>402</v>
@@ -7219,7 +8077,7 @@
         <v>701.12</v>
       </c>
       <c r="S30">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T30">
         <v>306554.19</v>
@@ -7228,7 +8086,7 @@
         <v>0.12</v>
       </c>
       <c r="V30">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W30">
         <v>1.31</v>
@@ -7243,7 +8101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7266,7 +8124,7 @@
         <v>6.38</v>
       </c>
       <c r="H31">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I31">
         <v>402</v>
@@ -7296,10 +8154,10 @@
         <v>10036.61</v>
       </c>
       <c r="R31">
-        <v>701.0700000000001</v>
+        <v>701.07</v>
       </c>
       <c r="S31">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T31">
         <v>306532.5</v>
@@ -7308,7 +8166,7 @@
         <v>0.12</v>
       </c>
       <c r="V31">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W31">
         <v>1.31</v>
@@ -7323,7 +8181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -7379,7 +8237,7 @@
         <v>695.97</v>
       </c>
       <c r="S32">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T32">
         <v>304209.93</v>
@@ -7388,13 +8246,13 @@
         <v>0.12</v>
       </c>
       <c r="V32">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="W32">
         <v>0.72</v>
       </c>
       <c r="X32">
-        <v>17.94</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -7403,7 +8261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7456,10 +8314,10 @@
         <v>10033.35</v>
       </c>
       <c r="R33">
-        <v>270.54</v>
+        <v>270.54000000000002</v>
       </c>
       <c r="S33">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T33">
         <v>92670.41</v>
@@ -7483,7 +8341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -7494,7 +8352,7 @@
         <v>26</v>
       </c>
       <c r="D34">
-        <v>2.7855</v>
+        <v>2.7854999999999999</v>
       </c>
       <c r="E34">
         <v>35.9</v>
@@ -7530,25 +8388,25 @@
         <v>21297.94</v>
       </c>
       <c r="P34">
-        <v>278.46</v>
+        <v>278.45999999999998</v>
       </c>
       <c r="Q34">
         <v>10033.31</v>
       </c>
       <c r="R34">
-        <v>266.1</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="S34">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T34">
-        <v>90459.21000000001</v>
+        <v>90459.21</v>
       </c>
       <c r="U34">
         <v>0.32</v>
       </c>
       <c r="V34">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W34">
         <v>0.48</v>
@@ -7563,7 +8421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -7619,7 +8477,7 @@
         <v>855.35</v>
       </c>
       <c r="S35">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T35">
         <v>383172.35</v>
@@ -7643,7 +8501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -7654,7 +8512,7 @@
         <v>26</v>
       </c>
       <c r="D36">
-        <v>2.2657</v>
+        <v>2.2656999999999998</v>
       </c>
       <c r="E36">
         <v>44.14</v>
@@ -7687,19 +8545,19 @@
         <v>20.75</v>
       </c>
       <c r="O36">
-        <v>16663.42</v>
+        <v>16663.419999999998</v>
       </c>
       <c r="P36">
         <v>321.18</v>
       </c>
       <c r="Q36">
-        <v>10034.45</v>
+        <v>10034.450000000001</v>
       </c>
       <c r="R36">
         <v>478.25</v>
       </c>
       <c r="S36">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T36">
         <v>195953.85</v>
@@ -7723,7 +8581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7737,7 +8595,7 @@
         <v>2.6555</v>
       </c>
       <c r="E37">
-        <v>37.66</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="F37">
         <v>31.23</v>
@@ -7752,7 +8610,7 @@
         <v>156</v>
       </c>
       <c r="J37">
-        <v>134.55</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="K37">
         <v>46.47</v>
@@ -7770,16 +8628,16 @@
         <v>16828.84</v>
       </c>
       <c r="P37">
-        <v>256.72</v>
+        <v>256.72000000000003</v>
       </c>
       <c r="Q37">
         <v>10033.41</v>
       </c>
       <c r="R37">
-        <v>323.21</v>
+        <v>323.20999999999998</v>
       </c>
       <c r="S37">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T37">
         <v>118829.1</v>
@@ -7803,7 +8661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -7814,13 +8672,13 @@
         <v>26</v>
       </c>
       <c r="D38">
-        <v>2.0089</v>
+        <v>2.0089000000000001</v>
       </c>
       <c r="E38">
         <v>49.78</v>
       </c>
       <c r="F38">
-        <v>38.55</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="G38">
         <v>7.89</v>
@@ -7847,19 +8705,19 @@
         <v>25.34</v>
       </c>
       <c r="O38">
-        <v>18787.76</v>
+        <v>18787.759999999998</v>
       </c>
       <c r="P38">
         <v>400.02</v>
       </c>
       <c r="Q38">
-        <v>10034.63</v>
+        <v>10034.629999999999</v>
       </c>
       <c r="R38">
         <v>580.47</v>
       </c>
       <c r="S38">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T38">
         <v>246773.99</v>
@@ -7883,7 +8741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7894,7 +8752,7 @@
         <v>26</v>
       </c>
       <c r="D39">
-        <v>2.7208</v>
+        <v>2.7208000000000001</v>
       </c>
       <c r="E39">
         <v>36.75</v>
@@ -7912,7 +8770,7 @@
         <v>136</v>
       </c>
       <c r="J39">
-        <v>151.83</v>
+        <v>151.83000000000001</v>
       </c>
       <c r="K39">
         <v>49.1</v>
@@ -7939,13 +8797,13 @@
         <v>293.33</v>
       </c>
       <c r="S39">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T39">
         <v>103992.37</v>
       </c>
       <c r="U39">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V39">
         <v>0.78</v>
@@ -7963,7 +8821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -7977,7 +8835,7 @@
         <v>2.7279</v>
       </c>
       <c r="E40">
-        <v>36.66</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="F40">
         <v>30.26</v>
@@ -7992,7 +8850,7 @@
         <v>135</v>
       </c>
       <c r="J40">
-        <v>153.23</v>
+        <v>153.22999999999999</v>
       </c>
       <c r="K40">
         <v>49.1</v>
@@ -8007,7 +8865,7 @@
         <v>26.13</v>
       </c>
       <c r="O40">
-        <v>19131.85</v>
+        <v>19131.849999999999</v>
       </c>
       <c r="P40">
         <v>268.74</v>
@@ -8019,13 +8877,13 @@
         <v>291.13</v>
       </c>
       <c r="S40">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T40">
         <v>102893.37</v>
       </c>
       <c r="U40">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V40">
         <v>0.78</v>
@@ -8043,7 +8901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -8054,7 +8912,7 @@
         <v>26</v>
       </c>
       <c r="D41">
-        <v>1.5598</v>
+        <v>1.5598000000000001</v>
       </c>
       <c r="E41">
         <v>64.11</v>
@@ -8090,7 +8948,7 @@
         <v>23136.14</v>
       </c>
       <c r="P41">
-        <v>577.6799999999999</v>
+        <v>577.67999999999995</v>
       </c>
       <c r="Q41">
         <v>10036.66</v>
@@ -8099,7 +8957,7 @@
         <v>827.66</v>
       </c>
       <c r="S41">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T41">
         <v>369706.62</v>
@@ -8123,7 +8981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8134,10 +8992,10 @@
         <v>26</v>
       </c>
       <c r="D42">
-        <v>2.7877</v>
+        <v>2.7877000000000001</v>
       </c>
       <c r="E42">
-        <v>35.87</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="F42">
         <v>29.23</v>
@@ -8164,22 +9022,22 @@
         <v>35</v>
       </c>
       <c r="N42">
-        <v>36.77</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="O42">
-        <v>23322.88</v>
+        <v>23322.880000000001</v>
       </c>
       <c r="P42">
         <v>294.26</v>
       </c>
       <c r="Q42">
-        <v>10032.22</v>
+        <v>10032.219999999999</v>
       </c>
       <c r="R42">
         <v>259.3</v>
       </c>
       <c r="S42">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T42">
         <v>87096.75</v>
@@ -8188,7 +9046,7 @@
         <v>0.33</v>
       </c>
       <c r="V42">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W42">
         <v>0.42</v>
@@ -8203,7 +9061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -8214,7 +9072,7 @@
         <v>26</v>
       </c>
       <c r="D43">
-        <v>2.8179</v>
+        <v>2.8178999999999998</v>
       </c>
       <c r="E43">
         <v>35.49</v>
@@ -8226,7 +9084,7 @@
         <v>16.11</v>
       </c>
       <c r="H43">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I43">
         <v>108</v>
@@ -8259,7 +9117,7 @@
         <v>249.96</v>
       </c>
       <c r="S43">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T43">
         <v>82445.77</v>
@@ -8283,7 +9141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -8294,7 +9152,7 @@
         <v>26</v>
       </c>
       <c r="D44">
-        <v>2.8256</v>
+        <v>2.8256000000000001</v>
       </c>
       <c r="E44">
         <v>35.39</v>
@@ -8339,7 +9197,7 @@
         <v>247.93</v>
       </c>
       <c r="S44">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T44">
         <v>81434.37</v>
@@ -8363,7 +9221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -8374,7 +9232,7 @@
         <v>26</v>
       </c>
       <c r="D45">
-        <v>2.4853</v>
+        <v>2.4853000000000001</v>
       </c>
       <c r="E45">
         <v>40.24</v>
@@ -8383,7 +9241,7 @@
         <v>33.42</v>
       </c>
       <c r="G45">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="H45">
         <v>0.15</v>
@@ -8404,13 +9262,13 @@
         <v>69</v>
       </c>
       <c r="N45">
-        <v>16.65</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="O45">
         <v>14546.17</v>
       </c>
       <c r="P45">
-        <v>257.04</v>
+        <v>257.04000000000002</v>
       </c>
       <c r="Q45">
         <v>10032.94</v>
@@ -8419,7 +9277,7 @@
         <v>399.21</v>
       </c>
       <c r="S45">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T45">
         <v>156620.31</v>
@@ -8443,7 +9301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8457,7 +9315,7 @@
         <v>2.5627</v>
       </c>
       <c r="E46">
-        <v>39.02</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="F46">
         <v>32.54</v>
@@ -8484,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="O46">
         <v>14705.49</v>
@@ -8499,7 +9357,7 @@
         <v>366.36</v>
       </c>
       <c r="S46">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T46">
         <v>140266</v>
@@ -8514,7 +9372,7 @@
         <v>0.67</v>
       </c>
       <c r="X46">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -8529,820 +9387,1472 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE07C7-D111-4197-87F4-0DC13A2EB9B8}">
+  <sheetPr codeName="Planilha23"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.XLOOKUP(B2,RESULTADOS_0!D:D,RESULTADOS_0!B:B,0,0,1)</f>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(B2,RESULTADOS_0!D:D,RESULTADOS_0!L:L,0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.XLOOKUP(B2,RESULTADOS_0!D:D,RESULTADOS_0!I:I,0,0,1)</f>
+        <v>999</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(B2,RESULTADOS_0!D:D,RESULTADOS_0!F:F,0,0,1)</f>
+        <v>70.66</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.XLOOKUP(B2,RESULTADOS_0!D:D,RESULTADOS_0!M:M,0,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>1.5550999999999999</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.XLOOKUP(B3,RESULTADOS_1!D:D,RESULTADOS_1!B:B,0,0,1)</f>
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.XLOOKUP(B3,RESULTADOS_1!D:D,RESULTADOS_1!L:L,0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.XLOOKUP(B3,RESULTADOS_1!D:D,RESULTADOS_1!I:I,0,0,1)</f>
+        <v>668</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.XLOOKUP(B3,RESULTADOS_1!D:D,RESULTADOS_1!F:F,0,0,1)</f>
+        <v>55.18</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.XLOOKUP(B3,RESULTADOS_1!D:D,RESULTADOS_1!M:M,0,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.5550999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>1.8082</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.XLOOKUP(B4,RESULTADOS_2!D:D,RESULTADOS_2!B:B,0,0,1)</f>
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP(B4,RESULTADOS_2!D:D,RESULTADOS_2!L:L,0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.XLOOKUP(B4,RESULTADOS_2!D:D,RESULTADOS_2!I:I,0,0,1)</f>
+        <v>502</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.XLOOKUP(B4,RESULTADOS_2!D:D,RESULTADOS_2!F:F,0,0,1)</f>
+        <v>47.42</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP(B4,RESULTADOS_2!D:D,RESULTADOS_2!M:M,0,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.8082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1.9959</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.XLOOKUP(B5,RESULTADOS_3!D:D,RESULTADOS_3!B:B,0,0,1)</f>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.XLOOKUP(B5,RESULTADOS_3!D:D,RESULTADOS_3!L:L,0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.XLOOKUP(B5,RESULTADOS_3!D:D,RESULTADOS_3!I:I,0,0,1)</f>
+        <v>402</v>
+      </c>
+      <c r="F5">
+        <f>_xlfn.XLOOKUP(B5,RESULTADOS_3!D:D,RESULTADOS_3!F:F,0,0,1)</f>
+        <v>42.72</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.XLOOKUP(B5,RESULTADOS_3!D:D,RESULTADOS_3!M:M,0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.9959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>2.1427999999999998</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.XLOOKUP(B6,RESULTADOS_4!D:D,RESULTADOS_4!B:B,0,0,1)</f>
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 1, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(B6,RESULTADOS_4!D:D,RESULTADOS_4!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.XLOOKUP(B6,RESULTADOS_4!D:D,RESULTADOS_4!I:I,0,0,1)</f>
+        <v>335</v>
+      </c>
+      <c r="F6">
+        <f>_xlfn.XLOOKUP(B6,RESULTADOS_4!D:D,RESULTADOS_4!F:F,0,0,1)</f>
+        <v>39.61</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.XLOOKUP(B6,RESULTADOS_4!D:D,RESULTADOS_4!M:M,0,0,1)</f>
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>2.1427999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
       <c r="B7">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 1, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>2.2591999999999999</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.XLOOKUP(B7,RESULTADOS_5!D:D,RESULTADOS_5!B:B,0,0,1)</f>
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(B7,RESULTADOS_5!D:D,RESULTADOS_5!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.XLOOKUP(B7,RESULTADOS_5!D:D,RESULTADOS_5!I:I,0,0,1)</f>
+        <v>288</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.XLOOKUP(B7,RESULTADOS_5!D:D,RESULTADOS_5!F:F,0,0,1)</f>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(B7,RESULTADOS_5!D:D,RESULTADOS_5!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C7">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 1, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I7">
+        <v>2.2591999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>2.3576000000000001</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.XLOOKUP(B8,RESULTADOS_6!D:D,RESULTADOS_6!B:B,0,0,1)</f>
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.XLOOKUP(B8,RESULTADOS_6!D:D,RESULTADOS_6!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.XLOOKUP(B8,RESULTADOS_6!D:D,RESULTADOS_6!I:I,0,0,1)</f>
+        <v>252</v>
+      </c>
+      <c r="F8">
+        <f>_xlfn.XLOOKUP(B8,RESULTADOS_6!D:D,RESULTADOS_6!F:F,0,0,1)</f>
+        <v>35.72</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.XLOOKUP(B8,RESULTADOS_6!D:D,RESULTADOS_6!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 2, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I8">
+        <v>2.3576000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>2.4386000000000001</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.XLOOKUP(B9,RESULTADOS_7!D:D,RESULTADOS_7!B:B,0,0,1)</f>
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(B9,RESULTADOS_7!D:D,RESULTADOS_7!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.XLOOKUP(B9,RESULTADOS_7!D:D,RESULTADOS_7!I:I,0,0,1)</f>
+        <v>224</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.XLOOKUP(B9,RESULTADOS_7!D:D,RESULTADOS_7!F:F,0,0,1)</f>
+        <v>34.409999999999997</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(B9,RESULTADOS_7!D:D,RESULTADOS_7!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="B8">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 2, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I9">
+        <v>2.4386000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>2.5063</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.XLOOKUP(B10,RESULTADOS_8!D:D,RESULTADOS_8!B:B,0,0,1)</f>
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.XLOOKUP(B10,RESULTADOS_8!D:D,RESULTADOS_8!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>_xlfn.XLOOKUP(B10,RESULTADOS_8!D:D,RESULTADOS_8!I:I,0,0,1)</f>
+        <v>202</v>
+      </c>
+      <c r="F10">
+        <f>_xlfn.XLOOKUP(B10,RESULTADOS_8!D:D,RESULTADOS_8!F:F,0,0,1)</f>
+        <v>33.369999999999997</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.XLOOKUP(B10,RESULTADOS_8!D:D,RESULTADOS_8!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C8">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 2, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I10">
+        <v>2.5063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>2.5627</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.XLOOKUP(B11,RESULTADOS_9!D:D,RESULTADOS_9!B:B,0,0,1)</f>
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.XLOOKUP(B11,RESULTADOS_9!D:D,RESULTADOS_9!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.XLOOKUP(B11,RESULTADOS_9!D:D,RESULTADOS_9!I:I,0,0,1)</f>
+        <v>184</v>
+      </c>
+      <c r="F11">
+        <f>_xlfn.XLOOKUP(B11,RESULTADOS_9!D:D,RESULTADOS_9!F:F,0,0,1)</f>
+        <v>32.54</v>
+      </c>
+      <c r="G11">
+        <f>_xlfn.XLOOKUP(B11,RESULTADOS_9!D:D,RESULTADOS_9!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 3, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I11">
+        <v>2.5627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>2.6124999999999998</v>
+      </c>
+      <c r="C12">
+        <f>_xlfn.XLOOKUP(B12,RESULTADOS_10!D:D,RESULTADOS_10!B:B,0,0,1)</f>
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.XLOOKUP(B12,RESULTADOS_10!D:D,RESULTADOS_10!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f>_xlfn.XLOOKUP(B12,RESULTADOS_10!D:D,RESULTADOS_10!I:I,0,0,1)</f>
+        <v>169</v>
+      </c>
+      <c r="F12">
+        <f>_xlfn.XLOOKUP(B12,RESULTADOS_10!D:D,RESULTADOS_10!F:F,0,0,1)</f>
+        <v>31.83</v>
+      </c>
+      <c r="G12">
+        <f>_xlfn.XLOOKUP(B12,RESULTADOS_10!D:D,RESULTADOS_10!M:M,0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2.6124999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>2.6555</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.XLOOKUP(B13,RESULTADOS_11!D:D,RESULTADOS_11!B:B,0,0,1)</f>
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.XLOOKUP(B13,RESULTADOS_11!D:D,RESULTADOS_11!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.XLOOKUP(B13,RESULTADOS_11!D:D,RESULTADOS_11!I:I,0,0,1)</f>
+        <v>156</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.XLOOKUP(B13,RESULTADOS_11!D:D,RESULTADOS_11!F:F,0,0,1)</f>
+        <v>31.23</v>
+      </c>
+      <c r="G13">
+        <f>_xlfn.XLOOKUP(B13,RESULTADOS_11!D:D,RESULTADOS_11!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="B9">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 3, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I13">
+        <v>2.6555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>2.6930999999999998</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.XLOOKUP(B14,RESULTADOS_12!D:D,RESULTADOS_12!B:B,0,0,1)</f>
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(B14,RESULTADOS_12!D:D,RESULTADOS_12!L:L,0,0,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.XLOOKUP(B14,RESULTADOS_12!D:D,RESULTADOS_12!I:I,0,0,1)</f>
+        <v>145</v>
+      </c>
+      <c r="F14">
+        <f>_xlfn.XLOOKUP(B14,RESULTADOS_12!D:D,RESULTADOS_12!F:F,0,0,1)</f>
+        <v>30.71</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.XLOOKUP(B14,RESULTADOS_12!D:D,RESULTADOS_12!M:M,0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2.6930999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>2.7279</v>
+      </c>
+      <c r="C15">
+        <f>_xlfn.XLOOKUP(B15,RESULTADOS_13!D:D,RESULTADOS_13!B:B,0,0,1)</f>
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.XLOOKUP(B15,RESULTADOS_13!D:D,RESULTADOS_13!L:L,0,0,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f>_xlfn.XLOOKUP(B15,RESULTADOS_13!D:D,RESULTADOS_13!I:I,0,0,1)</f>
+        <v>135</v>
+      </c>
+      <c r="F15">
+        <f>_xlfn.XLOOKUP(B15,RESULTADOS_13!D:D,RESULTADOS_13!F:F,0,0,1)</f>
+        <v>30.26</v>
+      </c>
+      <c r="G15">
+        <f>_xlfn.XLOOKUP(B15,RESULTADOS_13!D:D,RESULTADOS_13!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C9">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 3, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I15">
+        <v>2.7279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>2.7519</v>
+      </c>
+      <c r="C16">
+        <f>_xlfn.XLOOKUP(B16,RESULTADOS_14!D:D,RESULTADOS_14!B:B,0,0,1)</f>
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.XLOOKUP(B16,RESULTADOS_14!D:D,RESULTADOS_14!L:L,0,0,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f>_xlfn.XLOOKUP(B16,RESULTADOS_14!D:D,RESULTADOS_14!I:I,0,0,1)</f>
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <f>_xlfn.XLOOKUP(B16,RESULTADOS_14!D:D,RESULTADOS_14!F:F,0,0,1)</f>
+        <v>29.92</v>
+      </c>
+      <c r="G16">
+        <f>_xlfn.XLOOKUP(B16,RESULTADOS_14!D:D,RESULTADOS_14!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 4, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I16">
+        <v>2.7519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>2.7854999999999999</v>
+      </c>
+      <c r="C17">
+        <f>_xlfn.XLOOKUP(B17,RESULTADOS_15!D:D,RESULTADOS_15!B:B,0,0,1)</f>
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.XLOOKUP(B17,RESULTADOS_15!D:D,RESULTADOS_15!L:L,0,0,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f>_xlfn.XLOOKUP(B17,RESULTADOS_15!D:D,RESULTADOS_15!I:I,0,0,1)</f>
+        <v>119</v>
+      </c>
+      <c r="F17">
+        <f>_xlfn.XLOOKUP(B17,RESULTADOS_15!D:D,RESULTADOS_15!F:F,0,0,1)</f>
+        <v>29.49</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(B17,RESULTADOS_15!D:D,RESULTADOS_15!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="B10">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 4, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I17">
+        <v>2.7855000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>2.8048999999999999</v>
+      </c>
+      <c r="C18">
+        <f>_xlfn.XLOOKUP(B18,RESULTADOS_16!D:D,RESULTADOS_16!B:B,0,0,1)</f>
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <f>_xlfn.XLOOKUP(B18,RESULTADOS_16!D:D,RESULTADOS_16!L:L,0,0,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>_xlfn.XLOOKUP(B18,RESULTADOS_16!D:D,RESULTADOS_16!I:I,0,0,1)</f>
+        <v>113</v>
+      </c>
+      <c r="F18">
+        <f>_xlfn.XLOOKUP(B18,RESULTADOS_16!D:D,RESULTADOS_16!F:F,0,0,1)</f>
+        <v>29.21</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(B18,RESULTADOS_16!D:D,RESULTADOS_16!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C10">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 4, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I18">
+        <v>2.8048999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>2.8256000000000001</v>
+      </c>
+      <c r="C19">
+        <f>_xlfn.XLOOKUP(B19,RESULTADOS_17!D:D,RESULTADOS_17!B:B,0,0,1)</f>
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.XLOOKUP(B19,RESULTADOS_17!D:D,RESULTADOS_17!L:L,0,0,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>_xlfn.XLOOKUP(B19,RESULTADOS_17!D:D,RESULTADOS_17!I:I,0,0,1)</f>
+        <v>107</v>
+      </c>
+      <c r="F19">
+        <f>_xlfn.XLOOKUP(B19,RESULTADOS_17!D:D,RESULTADOS_17!F:F,0,0,1)</f>
+        <v>28.94</v>
+      </c>
+      <c r="G19">
+        <f>_xlfn.XLOOKUP(B19,RESULTADOS_17!D:D,RESULTADOS_17!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 5, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+      <c r="I19">
+        <v>2.8256000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="C20">
+        <f>_xlfn.XLOOKUP(B20,RESULTADOS_18!D:D,RESULTADOS_18!B:B,0,0,1)</f>
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f>_xlfn.XLOOKUP(B20,RESULTADOS_18!D:D,RESULTADOS_18!L:L,0,0,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f>_xlfn.XLOOKUP(B20,RESULTADOS_18!D:D,RESULTADOS_18!I:I,0,0,1)</f>
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <f>_xlfn.XLOOKUP(B20,RESULTADOS_18!D:D,RESULTADOS_18!F:F,0,0,1)</f>
+        <v>28.72</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.XLOOKUP(B20,RESULTADOS_18!D:D,RESULTADOS_18!M:M,0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="B11">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 5, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 5, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 6, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 6, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 6, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 7, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 7, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 7, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 8, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 8, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 8, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 9, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 9, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 9, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 10, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 10, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 10, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 11, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 11, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 11, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 12, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 12, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 12, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 13, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 13, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 13, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 14, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 14, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 14, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 15, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 15, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 15, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 16, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 16, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 16, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 17, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 17, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 17, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 18, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 18, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 18, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 19, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 19, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 19, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 20, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 20, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 20, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 21, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 21, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 21, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 22, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 22, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 22, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 23, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 23, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 23, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 24, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 24, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 24, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 25, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 25, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 25, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 26, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 26, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 26, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 27, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 27, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 27, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 28, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 28, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 28, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 29, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 29, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 29, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 30, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 30, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 30, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 31, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 31, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 31, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 32, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 32, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 32, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 33, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 33, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 33, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 34, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 34, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 34, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 35, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 35, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 35, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 36, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 36, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 36, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 37, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 37, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 37, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 38, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 38, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 38, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 39, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 39, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 39, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 40, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B46">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 40, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 40, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 41, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 41, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 41, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 42, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B48">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 42, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 42, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 43, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 43, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 43, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 44, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 44, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 44, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 45, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 45, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <f>INDEX(resultados!$A$2:$ZZ$46, 45, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
-        <v>0</v>
+      <c r="I20">
+        <v>2.8410000000000002</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>'hidden'!$A$1:$A$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>'hidden'!$A$1:$A$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>'hidden'!$A$1:$A$26</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr codeName="Planilha21"/>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 1, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B7" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 1, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 1, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 2, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B8" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 2, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 2, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 3, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B9" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 3, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 3, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 4, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B10" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 4, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 4, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 5, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B11" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 5, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 5, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 6, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B12" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 6, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 6, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 7, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B13" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 7, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 7, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 8, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B14" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 8, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 8, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 9, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B15" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 9, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 9, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 10, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B16" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 10, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 10, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 11, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B17" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 11, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 11, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 12, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B18" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 12, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 12, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 13, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B19" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 13, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 13, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 14, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B20" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 14, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 14, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 15, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B21" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 15, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 15, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 16, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B22" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 16, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 16, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 17, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B23" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 17, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 17, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 18, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B24" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 18, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 18, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 19, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B25" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 19, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 19, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 20, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B26" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 20, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 20, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 21, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B27" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 21, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 21, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 22, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B28" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 22, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 22, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 23, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B29" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 23, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 23, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 24, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B30" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 24, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 24, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 25, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B31" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 25, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 25, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 26, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B32" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 26, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 26, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 27, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B33" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 27, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 27, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 28, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B34" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 28, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 28, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 29, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B35" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 29, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 29, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 30, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B36" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 30, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 30, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 31, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B37" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 31, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 31, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 32, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B38" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 32, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 32, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 33, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B39" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 33, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 33, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 34, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B40" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 34, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 34, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 35, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B41" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 35, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C41" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 35, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 36, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B42" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 36, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 36, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 37, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B43" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 37, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 37, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 38, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B44" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 38, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 38, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 39, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B45" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 39, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 39, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 40, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B46" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 40, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 40, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 41, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B47" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 41, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 41, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 42, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B48" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 42, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 42, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 43, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B49" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 43, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 43, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 44, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B50" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 44, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 44, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 45, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B51" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 45, MATCH($B$2, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
+        <f>INDEX(resultados!$A$2:$ZZ$46, 45, MATCH($B$3, resultados!$A$1:$ZZ$1, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1400-000000000000}">
+          <x14:formula1>
+            <xm:f>hidden!$A$1:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr codeName="Planilha22"/>
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9353,14 +10863,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9440,7 +10951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9472,7 +10983,7 @@
         <v>71.52</v>
       </c>
       <c r="K2">
-        <v>32.27</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -9496,19 +11007,19 @@
         <v>600.63</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>256642.46</v>
       </c>
       <c r="U2">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V2">
         <v>0.6</v>
       </c>
       <c r="W2">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="X2">
         <v>15.68</v>
@@ -9520,7 +11031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9531,7 +11042,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.1428</v>
+        <v>2.1427999999999998</v>
       </c>
       <c r="E3">
         <v>46.67</v>
@@ -9552,7 +11063,7 @@
         <v>72.7</v>
       </c>
       <c r="K3">
-        <v>32.27</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -9576,19 +11087,19 @@
         <v>598.6</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>255630.23</v>
       </c>
       <c r="U3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V3">
         <v>0.6</v>
       </c>
       <c r="W3">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="X3">
         <v>15.62</v>
@@ -9606,14 +11117,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9693,7 +11205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9704,7 +11216,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>1.5551</v>
+        <v>1.5550999999999999</v>
       </c>
       <c r="E2">
         <v>64.3</v>
@@ -9749,7 +11261,7 @@
         <v>1110.77</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>510051.94</v>
@@ -9779,14 +11291,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9866,7 +11379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9877,13 +11390,13 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>2.1322</v>
+        <v>2.1322000000000001</v>
       </c>
       <c r="E2">
         <v>46.9</v>
       </c>
       <c r="F2">
-        <v>37.05</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="G2">
         <v>8.42</v>
@@ -9922,7 +11435,7 @@
         <v>529.34</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>221356.1</v>
@@ -9934,7 +11447,7 @@
         <v>0.64</v>
       </c>
       <c r="W2">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X2">
         <v>13.05</v>
@@ -9946,7 +11459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9957,10 +11470,10 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.6931</v>
+        <v>2.6930999999999998</v>
       </c>
       <c r="E3">
-        <v>37.13</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="F3">
         <v>30.71</v>
@@ -9975,7 +11488,7 @@
         <v>145</v>
       </c>
       <c r="J3">
-        <v>143.17</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="K3">
         <v>47.83</v>
@@ -9993,28 +11506,28 @@
         <v>17891.86</v>
       </c>
       <c r="P3">
-        <v>261.53</v>
+        <v>261.52999999999997</v>
       </c>
       <c r="Q3">
-        <v>10032.62</v>
+        <v>10032.620000000001</v>
       </c>
       <c r="R3">
-        <v>306.22</v>
+        <v>306.22000000000003</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>110390.64</v>
       </c>
       <c r="U3">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V3">
         <v>0.77</v>
       </c>
       <c r="W3">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X3">
         <v>6.73</v>
@@ -10026,7 +11539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10037,10 +11550,10 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.6931</v>
+        <v>2.6930999999999998</v>
       </c>
       <c r="E4">
-        <v>37.13</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="F4">
         <v>30.72</v>
@@ -10070,7 +11583,7 @@
         <v>23.71</v>
       </c>
       <c r="O4">
-        <v>18060.85</v>
+        <v>18060.849999999999</v>
       </c>
       <c r="P4">
         <v>263.94</v>
@@ -10079,22 +11592,22 @@
         <v>10032.61</v>
       </c>
       <c r="R4">
-        <v>306.21</v>
+        <v>306.20999999999998</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
         <v>110385.97</v>
       </c>
       <c r="U4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V4">
         <v>0.77</v>
       </c>
       <c r="W4">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X4">
         <v>6.73</v>
@@ -10112,14 +11625,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10199,7 +11713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10210,7 +11724,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>1.6644</v>
+        <v>1.6644000000000001</v>
       </c>
       <c r="E2">
         <v>60.08</v>
@@ -10246,7 +11760,7 @@
         <v>22031.19</v>
       </c>
       <c r="P2">
-        <v>529.55</v>
+        <v>529.54999999999995</v>
       </c>
       <c r="Q2">
         <v>10035.31</v>
@@ -10255,7 +11769,7 @@
         <v>759.59</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>335850.83</v>
@@ -10279,7 +11793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10293,7 +11807,7 @@
         <v>2.79</v>
       </c>
       <c r="E3">
-        <v>35.84</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="F3">
         <v>29.33</v>
@@ -10320,7 +11834,7 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>33.77</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="O3">
         <v>22213.89</v>
@@ -10335,7 +11849,7 @@
         <v>261.39</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>88123.73</v>
@@ -10344,7 +11858,7 @@
         <v>0.32</v>
       </c>
       <c r="V3">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W3">
         <v>0.46</v>
@@ -10359,7 +11873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10370,7 +11884,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.7975</v>
+        <v>2.7974999999999999</v>
       </c>
       <c r="E4">
         <v>35.75</v>
@@ -10409,22 +11923,22 @@
         <v>285.57</v>
       </c>
       <c r="Q4">
-        <v>10032.13</v>
+        <v>10032.129999999999</v>
       </c>
       <c r="R4">
         <v>259.12</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
-        <v>86992.67999999999</v>
+        <v>86992.68</v>
       </c>
       <c r="U4">
         <v>0.33</v>
       </c>
       <c r="V4">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W4">
         <v>0.46</v>
@@ -10439,7 +11953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10450,7 +11964,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>2.8049</v>
+        <v>2.8048999999999999</v>
       </c>
       <c r="E5">
         <v>35.65</v>
@@ -10486,25 +12000,25 @@
         <v>22581.25</v>
       </c>
       <c r="P5">
-        <v>287.04</v>
+        <v>287.04000000000002</v>
       </c>
       <c r="Q5">
-        <v>10032.13</v>
+        <v>10032.129999999999</v>
       </c>
       <c r="R5">
-        <v>257.1</v>
+        <v>257.10000000000002</v>
       </c>
       <c r="S5">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T5">
-        <v>85989.64999999999</v>
+        <v>85989.65</v>
       </c>
       <c r="U5">
         <v>0.33</v>
       </c>
       <c r="V5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="W5">
         <v>0.46</v>
@@ -10525,14 +12039,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10612,7 +12127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10623,10 +12138,10 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>1.199</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="E2">
-        <v>83.40000000000001</v>
+        <v>83.4</v>
       </c>
       <c r="F2">
         <v>70.66</v>
@@ -10668,7 +12183,7 @@
         <v>1619.06</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>762539.01</v>
@@ -10698,14 +12213,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10785,7 +12301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10796,13 +12312,13 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>2.4284</v>
+        <v>2.4283999999999999</v>
       </c>
       <c r="E2">
         <v>41.18</v>
       </c>
       <c r="F2">
-        <v>34.55</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="G2">
         <v>9.17</v>
@@ -10814,7 +12330,7 @@
         <v>226</v>
       </c>
       <c r="J2">
-        <v>98.70999999999999</v>
+        <v>98.71</v>
       </c>
       <c r="K2">
         <v>39.72</v>
@@ -10841,7 +12357,7 @@
         <v>432.43</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>173091.82</v>
@@ -10850,7 +12366,7 @@
         <v>0.2</v>
       </c>
       <c r="V2">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="W2">
         <v>0.79</v>
@@ -10865,7 +12381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10876,16 +12392,16 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.4386</v>
+        <v>2.4386000000000001</v>
       </c>
       <c r="E3">
         <v>41.01</v>
       </c>
       <c r="F3">
-        <v>34.41</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="G3">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="H3">
         <v>0.35</v>
@@ -10921,7 +12437,7 @@
         <v>427.97</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>170868.23</v>
@@ -10930,7 +12446,7 @@
         <v>0.2</v>
       </c>
       <c r="V3">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="W3">
         <v>0.79</v>
@@ -10951,14 +12467,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11038,7 +12555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11049,7 +12566,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>2.397</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="E2">
         <v>41.72</v>
@@ -11058,10 +12575,10 @@
         <v>34.22</v>
       </c>
       <c r="G2">
-        <v>9.779999999999999</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="H2">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I2">
         <v>210</v>
@@ -11085,7 +12602,7 @@
         <v>15605.44</v>
       </c>
       <c r="P2">
-        <v>284.78</v>
+        <v>284.77999999999997</v>
       </c>
       <c r="Q2">
         <v>10033.49</v>
@@ -11094,7 +12611,7 @@
         <v>430.21</v>
       </c>
       <c r="S2">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T2">
         <v>172061.49</v>
@@ -11103,7 +12620,7 @@
         <v>0.2</v>
       </c>
       <c r="V2">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="W2">
         <v>0.54</v>
@@ -11118,7 +12635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11129,7 +12646,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>2.6125</v>
+        <v>2.6124999999999998</v>
       </c>
       <c r="E3">
         <v>38.28</v>
@@ -11141,7 +12658,7 @@
         <v>11.3</v>
       </c>
       <c r="H3">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I3">
         <v>169</v>
@@ -11174,7 +12691,7 @@
         <v>342.84</v>
       </c>
       <c r="S3">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T3">
         <v>128580.88</v>
@@ -11198,7 +12715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11209,7 +12726,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.6125</v>
+        <v>2.6124999999999998</v>
       </c>
       <c r="E4">
         <v>38.28</v>
@@ -11254,7 +12771,7 @@
         <v>342.81</v>
       </c>
       <c r="S4">
-        <v>84.51000000000001</v>
+        <v>84.51</v>
       </c>
       <c r="T4">
         <v>128566.67</v>

--- a/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="895" documentId="11_B6EE3881D008C8B8764CF0F05AEC9A711CBBAEFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D06E95EB-2F95-445F-B8E2-AD2E3C68C6BE}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="11_B6EE3881D008C8B8764CF0F05AEC9A711CBBAEFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2AA499-386F-4AA9-84EC-E14965F58FD8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTADOS_18" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <sheet name="gráficos" sheetId="21" r:id="rId22"/>
     <sheet name="hidden" sheetId="22" state="hidden" r:id="rId23"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId24"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -491,7 +488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E92-49B8-914E-E5BCA09E6702}"/>
+              <c16:uniqueId val="{00000001-5576-4BBC-8775-0437FAF99F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -501,7 +498,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E92-49B8-914E-E5BCA09E6702}"/>
+              <c16:uniqueId val="{00000002-5576-4BBC-8775-0437FAF99F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -513,11 +510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="768853104"/>
-        <c:axId val="768857424"/>
+        <c:axId val="762964560"/>
+        <c:axId val="762979440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="768853104"/>
+        <c:axId val="762964560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,12 +542,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="768857424"/>
+        <c:crossAx val="762979440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="768857424"/>
+        <c:axId val="762979440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="768853104"/>
+        <c:crossAx val="762964560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1786,23 +1783,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12786CD-A467-918A-7DBB-5D8276EF03F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC58FFF0-CD99-0346-FE7E-DA9C6717154D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,101 +1859,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Resumo"/>
-      <sheetName val="Resultado 0"/>
-      <sheetName val="Resultado 1"/>
-      <sheetName val="Resultado 2"/>
-      <sheetName val="Resultado 3"/>
-      <sheetName val="Resultado 4"/>
-      <sheetName val="Resultado 5"/>
-      <sheetName val="Resultado 6"/>
-      <sheetName val="Resultado 7"/>
-      <sheetName val="Resultado 8"/>
-      <sheetName val="Resultado 9"/>
-      <sheetName val="Resultado 10"/>
-      <sheetName val="Resultado 11"/>
-      <sheetName val="Resultado 12"/>
-      <sheetName val="Resultado 13"/>
-      <sheetName val="Resultado 14"/>
-      <sheetName val="Resultado 15"/>
-      <sheetName val="Resultado 16"/>
-      <sheetName val="Resultado 17"/>
-      <sheetName val="Resultado 18"/>
-      <sheetName val="Resultado 19"/>
-      <sheetName val="Resultado 20"/>
-      <sheetName val="Resultado 21"/>
-      <sheetName val="Resultado 22"/>
-      <sheetName val="Resultado 23"/>
-      <sheetName val="Resultado 24"/>
-      <sheetName val="Resultado 25"/>
-      <sheetName val="Resultado 26"/>
-      <sheetName val="Resultado 27"/>
-      <sheetName val="Resultado 28"/>
-      <sheetName val="Resultado 29"/>
-      <sheetName val="Resultado 30"/>
-      <sheetName val="Resultado 31"/>
-      <sheetName val="Resultado 32"/>
-      <sheetName val="Resultado 33"/>
-      <sheetName val="Resultado 34"/>
-      <sheetName val="Resultado 36"/>
-      <sheetName val="Resultado 37"/>
-      <sheetName val="Resultado 38"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="CriarResultadosGeral"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_LM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="895" documentId="11_B6EE3881D008C8B8764CF0F05AEC9A711CBBAEFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D06E95EB-2F95-445F-B8E2-AD2E3C68C6BE}"/>
+  <xr:revisionPtr revIDLastSave="896" documentId="11_B6EE3881D008C8B8764CF0F05AEC9A711CBBAEFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2561FEC2-8575-4649-9E89-6A82075E5E56}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTADOS_18" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <sheet name="gráficos" sheetId="21" r:id="rId22"/>
     <sheet name="hidden" sheetId="22" state="hidden" r:id="rId23"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId24"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -58,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="60">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Resultado 18</t>
+  </si>
+  <si>
+    <t>eld_100ha_100ha_18%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -1864,101 +1864,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Resumo"/>
-      <sheetName val="Resultado 0"/>
-      <sheetName val="Resultado 1"/>
-      <sheetName val="Resultado 2"/>
-      <sheetName val="Resultado 3"/>
-      <sheetName val="Resultado 4"/>
-      <sheetName val="Resultado 5"/>
-      <sheetName val="Resultado 6"/>
-      <sheetName val="Resultado 7"/>
-      <sheetName val="Resultado 8"/>
-      <sheetName val="Resultado 9"/>
-      <sheetName val="Resultado 10"/>
-      <sheetName val="Resultado 11"/>
-      <sheetName val="Resultado 12"/>
-      <sheetName val="Resultado 13"/>
-      <sheetName val="Resultado 14"/>
-      <sheetName val="Resultado 15"/>
-      <sheetName val="Resultado 16"/>
-      <sheetName val="Resultado 17"/>
-      <sheetName val="Resultado 18"/>
-      <sheetName val="Resultado 19"/>
-      <sheetName val="Resultado 20"/>
-      <sheetName val="Resultado 21"/>
-      <sheetName val="Resultado 22"/>
-      <sheetName val="Resultado 23"/>
-      <sheetName val="Resultado 24"/>
-      <sheetName val="Resultado 25"/>
-      <sheetName val="Resultado 26"/>
-      <sheetName val="Resultado 27"/>
-      <sheetName val="Resultado 28"/>
-      <sheetName val="Resultado 29"/>
-      <sheetName val="Resultado 30"/>
-      <sheetName val="Resultado 31"/>
-      <sheetName val="Resultado 32"/>
-      <sheetName val="Resultado 33"/>
-      <sheetName val="Resultado 34"/>
-      <sheetName val="Resultado 36"/>
-      <sheetName val="Resultado 37"/>
-      <sheetName val="Resultado 38"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="CriarResultadosGeral"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2251,9 +2156,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2413,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2493,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2585,9 +2490,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2747,7 +2652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2827,7 +2732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2919,9 +2824,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +2906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3081,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3173,9 +3078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3255,7 +3160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3335,7 +3240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3427,9 +3332,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3509,7 +3414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3589,7 +3494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3681,9 +3586,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3763,7 +3668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3843,7 +3748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3923,7 +3828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4015,9 +3920,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4097,7 +4002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4189,9 +4094,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4271,7 +4176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4351,7 +4256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4443,9 +4348,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4525,7 +4430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4605,7 +4510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4685,7 +4590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4777,9 +4682,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4859,7 +4764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4939,7 +4844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5019,7 +4924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5099,7 +5004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5191,9 +5096,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +5178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5353,7 +5258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5445,9 +5350,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +5432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5607,7 +5512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5699,9 +5604,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5781,7 +5686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5861,7 +5766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5941,7 +5846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6021,7 +5926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6101,7 +6006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6181,7 +6086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -6261,7 +6166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6341,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6421,7 +6326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6501,7 +6406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6581,7 +6486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6661,7 +6566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -6741,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6821,7 +6726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6901,7 +6806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6981,7 +6886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -7061,7 +6966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -7141,7 +7046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7221,7 +7126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -7301,7 +7206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7381,7 +7286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7461,7 +7366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -7541,7 +7446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7621,7 +7526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -7701,7 +7606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -7781,7 +7686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7861,7 +7766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -7941,7 +7846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8021,7 +7926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -8101,7 +8006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8181,7 +8086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -8261,7 +8166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -8341,7 +8246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -8421,7 +8326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -8501,7 +8406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -8581,7 +8486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -8661,7 +8566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -8741,7 +8646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -8821,7 +8726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -8901,7 +8806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -8981,7 +8886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -9061,7 +8966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -9141,7 +9046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -9221,7 +9126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -9301,7 +9206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -9389,18 +9294,18 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE07C7-D111-4197-87F4-0DC13A2EB9B8}">
   <sheetPr codeName="Planilha23"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -9428,8 +9333,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -9469,7 +9377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -9500,7 +9408,7 @@
         <v>1.5550999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -9531,7 +9439,7 @@
         <v>1.8082</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -9562,7 +9470,7 @@
         <v>1.9959</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9593,7 +9501,7 @@
         <v>2.1427999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -9624,7 +9532,7 @@
         <v>2.2591999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -9655,7 +9563,7 @@
         <v>2.3576000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -9686,7 +9594,7 @@
         <v>2.4386000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -9717,7 +9625,7 @@
         <v>2.5063</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -9748,7 +9656,7 @@
         <v>2.5627</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -9779,7 +9687,7 @@
         <v>2.6124999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -9810,7 +9718,7 @@
         <v>2.6555</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -9841,7 +9749,7 @@
         <v>2.6930999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -9872,7 +9780,7 @@
         <v>2.7279</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -9903,7 +9811,7 @@
         <v>2.7519</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -9934,7 +9842,7 @@
         <v>2.7855000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -9965,7 +9873,7 @@
         <v>2.8048999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -9996,7 +9904,7 @@
         <v>2.8256000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -10042,24 +9950,24 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -10070,7 +9978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 1, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10084,7 +9992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 2, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10098,7 +10006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 3, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10112,7 +10020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 4, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10126,7 +10034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 5, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10140,7 +10048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 6, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10154,7 +10062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 7, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10168,7 +10076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 8, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10182,7 +10090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 9, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10196,7 +10104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 10, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10210,7 +10118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 11, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10224,7 +10132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 12, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10238,7 +10146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 13, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10252,7 +10160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 14, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10266,7 +10174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 15, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10280,7 +10188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 16, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10294,7 +10202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 17, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10308,7 +10216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 18, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10322,7 +10230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 19, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10336,7 +10244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 20, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10350,7 +10258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 21, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10364,7 +10272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 22, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10378,7 +10286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 23, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10392,7 +10300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 24, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10406,7 +10314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 25, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10420,7 +10328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 26, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10434,7 +10342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 27, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10448,7 +10356,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 28, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10462,7 +10370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 29, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10476,7 +10384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 30, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10490,7 +10398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 31, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10504,7 +10412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 32, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10518,7 +10426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 33, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10532,7 +10440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 34, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10546,7 +10454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 35, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10560,7 +10468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 36, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10574,7 +10482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 37, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10588,7 +10496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 38, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10602,7 +10510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 39, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10616,7 +10524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 40, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10630,7 +10538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 41, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10644,7 +10552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 42, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10658,7 +10566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 43, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10672,7 +10580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 44, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10686,7 +10594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$46, 45, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -10725,134 +10633,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -10869,9 +10777,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10951,7 +10859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11031,7 +10939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11123,9 +11031,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11205,7 +11113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11297,9 +11205,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11379,7 +11287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11459,7 +11367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11539,7 +11447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11631,9 +11539,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11713,7 +11621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11793,7 +11701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11873,7 +11781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11953,7 +11861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12045,9 +11953,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12127,7 +12035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12219,9 +12127,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12301,7 +12209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12381,7 +12289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12473,9 +12381,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12555,7 +12463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12635,7 +12543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12715,7 +12623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>

--- a/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1084" documentId="11_B6EE3881D008C8B8764CF0F05AEC9A711CBBAEFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2AA499-386F-4AA9-84EC-E14965F58FD8}"/>
+  <xr:revisionPtr revIDLastSave="1086" documentId="11_B6EE3881D008C8B8764CF0F05AEC9A711CBBAEFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B37FFD-E6E7-471B-88FB-C89F385DB5B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTADOS_18" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="61">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Resultado 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>eld_100ha_100ha_18%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2157,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2202,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -4677,7 +4685,9 @@
   <sheetPr codeName="Planilha18"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9293,7 +9303,7 @@
   <sheetPr codeName="Planilha23"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -9400,6 +9410,9 @@
       </c>
       <c r="I3">
         <v>1.5550999999999999</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
